--- a/Datasets/EI2015/09.xlsx
+++ b/Datasets/EI2015/09.xlsx
@@ -65,7 +65,10 @@
     <t>Municipal</t>
   </si>
   <si>
-    <t>S/N</t>
+    <t>Los límites de confianza se calculan al 90 por ciento.
+1  Excluye las siguientes clases de vivienda: locales no construidos para habitación, viviendas móviles y refugios.
+*  Municipio censado.
+**  Municipio con muestra insuficiente.</t>
   </si>
   <si>
     <t>INEGI (Microdatos)</t>
